--- a/public/template_report/delivery_template_2.xlsx
+++ b/public/template_report/delivery_template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="DO" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>PT IBARAKI KOGYO HANAN INDONESIA</t>
   </si>
@@ -123,7 +123,16 @@
     <t>(___________________)</t>
   </si>
   <si>
+    <t>Nama:</t>
+  </si>
+  <si>
     <t>Tanggal :</t>
+  </si>
+  <si>
+    <t>Jam:</t>
+  </si>
+  <si>
+    <t>Jam</t>
   </si>
 </sst>
 </file>
@@ -132,15 +141,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="_-[$Rp-421]* #,##0.00_ ;_-[$Rp-421]* \-#,##0.00\ ;_-[$Rp-421]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="[$-13809]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -279,6 +288,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -303,8 +319,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.249946592608417"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,125 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1" tint="0.249946592608417"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,25 +466,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,157 +532,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,25 +759,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +799,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -808,260 +823,254 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="61">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="62">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="62" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="61" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,28 +1079,28 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1110,31 +1119,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="14" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1146,10 +1146,10 @@
     <xf numFmtId="58" fontId="9" fillId="2" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
@@ -1178,46 +1178,46 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1231,13 +1231,13 @@
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Currency [0] 2" xfId="2"/>
-    <cellStyle name="Heading 1 2" xfId="3"/>
+    <cellStyle name="Phone" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Name" xfId="3"/>
     <cellStyle name="Heading 2 2" xfId="4"/>
-    <cellStyle name="Name" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Phone" xfId="7"/>
+    <cellStyle name="Heading 1 2" xfId="5"/>
+    <cellStyle name="Currency [0] 2" xfId="6"/>
+    <cellStyle name="Comma 2" xfId="7"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="10" builtinId="48"/>
@@ -1291,8 +1291,8 @@
     <cellStyle name="Check Cell" xfId="58" builtinId="23"/>
     <cellStyle name="60% - Accent3" xfId="59" builtinId="40"/>
     <cellStyle name="Percent" xfId="60" builtinId="5"/>
-    <cellStyle name="Explanatory Text 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Explanatory Text 2" xfId="62"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1613,10 +1613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="14"/>
@@ -1638,7 +1638,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="11:11">
-      <c r="K1" s="49"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.4" spans="1:15">
       <c r="A2" s="8" t="s">
@@ -1651,15 +1651,15 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9"/>
@@ -1670,10 +1670,10 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A4" s="10" t="s">
@@ -1686,12 +1686,12 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A5" s="10" t="s">
@@ -1704,12 +1704,12 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A6" s="10" t="s">
@@ -1722,18 +1722,18 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="37"/>
@@ -1751,9 +1751,9 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="12.75" customHeight="1" spans="1:9">
       <c r="A9" s="12"/>
@@ -1777,9 +1777,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="I10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="12.4" spans="1:12">
       <c r="A11" s="15" t="s">
@@ -1793,9 +1793,9 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A12" s="16"/>
@@ -1807,9 +1807,9 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A13" s="16"/>
@@ -1821,8 +1821,8 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="69"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="37"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:12">
@@ -1848,10 +1848,10 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="38"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="12.4" spans="11:11">
-      <c r="K16" s="63"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
@@ -1865,21 +1865,21 @@
       <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="76"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="73"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
@@ -1887,14 +1887,14 @@
       <c r="A19" s="19"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -1903,13 +1903,13 @@
       <c r="H20" s="7"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
     </row>
     <row r="21" s="5" customFormat="1" ht="15.75" customHeight="1" spans="11:12">
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
       <c r="A22" s="24"/>
@@ -1920,12 +1920,12 @@
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" ht="15.2" spans="1:12">
       <c r="A23" s="26"/>
@@ -1936,12 +1936,12 @@
       <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" ht="15.2" spans="3:12">
       <c r="C24" s="27"/>
@@ -1952,12 +1952,12 @@
       <c r="F24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="4:12">
       <c r="D25" s="29" t="s">
@@ -1966,12 +1966,12 @@
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" ht="15.2" spans="3:13">
       <c r="C26" s="30"/>
@@ -1983,7 +1983,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="30"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="72"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="33"/>
     </row>
     <row r="27" ht="15.2" spans="3:13">
@@ -2000,7 +2000,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="30"/>
       <c r="K27" s="33"/>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="70" t="s">
         <v>27</v>
       </c>
       <c r="M27" s="33"/>
@@ -2012,11 +2012,11 @@
       <c r="F28" s="35"/>
       <c r="G28" s="30"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="74"/>
+      <c r="M28" s="71"/>
     </row>
     <row r="29" ht="15.2" spans="3:13">
       <c r="C29" s="32"/>
@@ -2031,46 +2031,73 @@
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="74"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" ht="14.8" spans="3:13">
-      <c r="C30" s="34"/>
-      <c r="D30" s="35" t="s">
+    <row r="30" ht="15.2" spans="3:13">
+      <c r="C30" s="32"/>
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="35" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="74"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="75"/>
-      <c r="M30" s="77"/>
-    </row>
-    <row r="31" spans="11:11">
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="8:12">
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-    </row>
-    <row r="33" spans="8:12">
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" ht="14.8" spans="3:13">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="72"/>
+      <c r="M31" s="74"/>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="8:12">
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -2110,15 +2137,15 @@
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
   </mergeCells>
   <dataValidations count="23">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Prepared by name in this cell" sqref="K12:K13"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A4:A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Append company Contact Name, Phone Number, and Email address in this cell" sqref="C30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Append company Contact Name, Phone Number, and Email address in this cell" sqref="C31"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer City, State, and Zip Code in this cell" sqref="A16:G16 H15:I16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Prepared by name in cell at right" sqref="J12"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter customer Name in this cell" sqref="A12 G12:I12"/>
